--- a/Original_Excel_Files/HC.xlsx
+++ b/Original_Excel_Files/HC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Desktop\SimLibSort\Original Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Desktop\SimLibSort\Original_Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADE48E8-30DC-47A6-96B0-C86DCF189669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9DD6A9-6748-4A86-984B-C990C8FDC7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,17 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
   <si>
     <t>HC55 .B28</t>
   </si>
   <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Richard J.</t>
-  </si>
-  <si>
     <t>1980 H</t>
   </si>
   <si>
@@ -47,18 +41,6 @@
     <t>HC59 .M458 1974</t>
   </si>
   <si>
-    <t>Mesarovic</t>
-  </si>
-  <si>
-    <t>Mihajlo</t>
-  </si>
-  <si>
-    <t>Pestel</t>
-  </si>
-  <si>
-    <t>Eduard</t>
-  </si>
-  <si>
     <t>1974 P</t>
   </si>
   <si>
@@ -74,12 +56,6 @@
     <t>HC59.7 .B38864 1974</t>
   </si>
   <si>
-    <t>Berger</t>
-  </si>
-  <si>
-    <t>Peter L.</t>
-  </si>
-  <si>
     <t>1974 H</t>
   </si>
   <si>
@@ -89,33 +65,18 @@
     <t>HC59.7 .R272</t>
   </si>
   <si>
-    <t>Rapley, John</t>
-  </si>
-  <si>
     <t>Understanding Development</t>
   </si>
   <si>
     <t>HC59.72 .P6S225 2005</t>
   </si>
   <si>
-    <t>Sach, Jeffrey</t>
-  </si>
-  <si>
     <t>The End of Poverty</t>
   </si>
   <si>
     <t>HC60 .L325 1987</t>
   </si>
   <si>
-    <t>Lappe</t>
-  </si>
-  <si>
-    <t>Frances Moore</t>
-  </si>
-  <si>
-    <t>et al.</t>
-  </si>
-  <si>
     <t>1987 P</t>
   </si>
   <si>
@@ -125,36 +86,21 @@
     <t>HC 60 .U4</t>
   </si>
   <si>
-    <t>Ullsten, Ola</t>
-  </si>
-  <si>
     <t>Sweden and the Developing Countries</t>
   </si>
   <si>
     <t>HC79 .D4 R46 1989</t>
   </si>
   <si>
-    <t>Renner, Michael</t>
-  </si>
-  <si>
     <t>1989 P</t>
   </si>
   <si>
     <t>National security: the economic and environmental demensions</t>
   </si>
   <si>
-    <t>National Security: The Economic and Environmental Dimensions</t>
-  </si>
-  <si>
     <t>HC79 .E5 B365 1993</t>
   </si>
   <si>
-    <t>Barney</t>
-  </si>
-  <si>
-    <t>Gerald O.</t>
-  </si>
-  <si>
     <t>1993 O</t>
   </si>
   <si>
@@ -164,9 +110,6 @@
     <t>HC79 .E5 B759 2001</t>
   </si>
   <si>
-    <t>Brown, Lester R.</t>
-  </si>
-  <si>
     <t>Eco-Economy</t>
   </si>
   <si>
@@ -179,39 +122,18 @@
     <t>HC79 .E5 C755 1994</t>
   </si>
   <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Tae-Chang (Ed)</t>
-  </si>
-  <si>
-    <t>Dator</t>
-  </si>
-  <si>
-    <t>James (Ed)</t>
-  </si>
-  <si>
     <t>1994 H</t>
   </si>
   <si>
     <t>Creating a New History for Future Generations</t>
   </si>
   <si>
-    <t>Kim, Tae-Chang and Dator, James A.</t>
-  </si>
-  <si>
     <t>Creating a New History</t>
   </si>
   <si>
     <t>HC79.E5 M94 1984</t>
   </si>
   <si>
-    <t>Myers</t>
-  </si>
-  <si>
-    <t>Norman (Ed)</t>
-  </si>
-  <si>
     <t>1984 O</t>
   </si>
   <si>
@@ -221,42 +143,21 @@
     <t>HC79 .P55 D65</t>
   </si>
   <si>
-    <t>Dorfman, Robert and Dorfman, Nancy eds.</t>
-  </si>
-  <si>
     <t>Economics of the Environment</t>
   </si>
   <si>
     <t>HC79 .P55 D65 1972</t>
   </si>
   <si>
-    <t>Dorfan</t>
-  </si>
-  <si>
-    <t>Robert Ed.</t>
-  </si>
-  <si>
-    <t>Dorfman</t>
-  </si>
-  <si>
-    <t>Nancy S. Ed.</t>
-  </si>
-  <si>
     <t>Economics of the Environment: Selected Readings</t>
   </si>
   <si>
     <t>HC79 .P6 D87 1989</t>
   </si>
   <si>
-    <t>Durning, Alan B.</t>
-  </si>
-  <si>
     <t>Action at the Grassroots: Fighting Povery and Environmental Decline</t>
   </si>
   <si>
-    <t>Durning, Alen B.</t>
-  </si>
-  <si>
     <t>Action at the grassroots: fighting poverty and environmental decline</t>
   </si>
   <si>
@@ -272,12 +173,6 @@
     <t>HC106.5 .G32 1969</t>
   </si>
   <si>
-    <t>Galbraith</t>
-  </si>
-  <si>
-    <t>John K.</t>
-  </si>
-  <si>
     <t>1969 P</t>
   </si>
   <si>
@@ -296,24 +191,12 @@
     <t>HC106.6 .H4 1967</t>
   </si>
   <si>
-    <t>Heller</t>
-  </si>
-  <si>
-    <t>Walter W.</t>
-  </si>
-  <si>
     <t>New Dimensions of Political Economy</t>
   </si>
   <si>
     <t>HC106.8 .B59 1991</t>
   </si>
   <si>
-    <t>Binder</t>
-  </si>
-  <si>
-    <t>Alan S.</t>
-  </si>
-  <si>
     <t>1990 O</t>
   </si>
   <si>
@@ -323,12 +206,6 @@
     <t>HC106.8 .K78 1992</t>
   </si>
   <si>
-    <t>Krugman</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>1992 P</t>
   </si>
   <si>
@@ -338,18 +215,12 @@
     <t>HC106.8.P48 1982</t>
   </si>
   <si>
-    <t>Phillips, Kevin</t>
-  </si>
-  <si>
     <t>Post-Conservative America: People, Politics, and Ideology in a Time of Crisis</t>
   </si>
   <si>
     <t>HC106.82 .H39 1999</t>
   </si>
   <si>
-    <t>Hawken</t>
-  </si>
-  <si>
     <t>1999 H</t>
   </si>
   <si>
@@ -359,21 +230,12 @@
     <t>HC106.83.K67</t>
   </si>
   <si>
-    <t>Korten, David C</t>
-  </si>
-  <si>
     <t>Agenda for a New Economy</t>
   </si>
   <si>
     <t>HC110 .C6 E44 1990</t>
   </si>
   <si>
-    <t>Elkington</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>1990 P</t>
   </si>
   <si>
@@ -383,12 +245,6 @@
     <t>HC110.D4 B67</t>
   </si>
   <si>
-    <t>Boulding</t>
-  </si>
-  <si>
-    <t>Kenneth E. (Ed)</t>
-  </si>
-  <si>
     <t>1970 P</t>
   </si>
   <si>
@@ -407,33 +263,18 @@
     <t>HC110 .E5 E49835 1991</t>
   </si>
   <si>
-    <t>Bernards</t>
-  </si>
-  <si>
-    <t>Neal</t>
-  </si>
-  <si>
     <t>The Environmental Crisis</t>
   </si>
   <si>
     <t>HC110 .E5 F77</t>
   </si>
   <si>
-    <t>ed Reid, Walter V. and Dower, Roger</t>
-  </si>
-  <si>
     <t>Frontiers of Sustainability</t>
   </si>
   <si>
     <t>HC110.E5 S38</t>
   </si>
   <si>
-    <t>Sax</t>
-  </si>
-  <si>
-    <t>Joseph L.</t>
-  </si>
-  <si>
     <t>1971 P</t>
   </si>
   <si>
@@ -443,27 +284,18 @@
     <t>HC110 .I5 T475</t>
   </si>
   <si>
-    <t>Ed. van Gelder, Sarah</t>
-  </si>
-  <si>
     <t>This Changes Everything</t>
   </si>
   <si>
     <t>HC110 .I5T47</t>
   </si>
   <si>
-    <t>Theobald, Robert ed.</t>
-  </si>
-  <si>
     <t>Committed Spending</t>
   </si>
   <si>
     <t>HC110 .P6 C56 vol 3</t>
   </si>
   <si>
-    <t>Coles, Robert</t>
-  </si>
-  <si>
     <t>The South Goes North: Volume III of Children of Crisis</t>
   </si>
   <si>
@@ -482,27 +314,12 @@
     <t>HC110.I5 T47</t>
   </si>
   <si>
-    <t>Theobald</t>
-  </si>
-  <si>
-    <t>Robert (Ed)</t>
-  </si>
-  <si>
-    <t>et al. (Eds)</t>
-  </si>
-  <si>
     <t>Committed Spending: A Route to Economic Security</t>
   </si>
   <si>
     <t>HC165 .H5</t>
   </si>
   <si>
-    <t>Hirschman</t>
-  </si>
-  <si>
-    <t>Albert O. (Ed)</t>
-  </si>
-  <si>
     <t>1961 P</t>
   </si>
   <si>
@@ -512,24 +329,12 @@
     <t>HC335 .N68 1990</t>
   </si>
   <si>
-    <t>Nove</t>
-  </si>
-  <si>
-    <t>Alec</t>
-  </si>
-  <si>
     <t>An Economic History of the U.S.S.R.</t>
   </si>
   <si>
     <t>HC336.26 .A43 1989</t>
   </si>
   <si>
-    <t>Aganbegyan</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
     <t>1989 H</t>
   </si>
   <si>
@@ -539,12 +344,6 @@
     <t>HC447 .G4 1968</t>
   </si>
   <si>
-    <t>Geertz</t>
-  </si>
-  <si>
-    <t>Clifford</t>
-  </si>
-  <si>
     <t>1968 P</t>
   </si>
   <si>
@@ -554,12 +353,6 @@
     <t>HC545</t>
   </si>
   <si>
-    <t>DS518.1 m366 1978</t>
-  </si>
-  <si>
-    <t>Meacham, Stewart and Meacham Chalotte</t>
-  </si>
-  <si>
     <t>Imperialism Without Invading Armies</t>
   </si>
   <si>
@@ -570,13 +363,22 @@
   </si>
   <si>
     <t>Apartheid's Environmental Toll</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,11 +403,6 @@
       <sz val="11"/>
       <color rgb="FF272727"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -653,43 +450,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,1183 +712,759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="59.625" customWidth="1"/>
+    <col min="4" max="22" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1982</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2009</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1990</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1991</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1991</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
+      <c r="A16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1997</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" thickBot="1">
+      <c r="A17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="18">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1968</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1967</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25">
+      <c r="A20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1964</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1990</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1976</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="17">
+        <v>2005</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="18">
+        <v>1996</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="18">
+        <v>2005</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="18">
+        <v>2001</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="18">
+        <v>2008</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="14" t="s">
+      <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="G2" s="14" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="18">
+        <v>1994</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1982</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A9" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="14" t="s">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="18">
+        <v>1972</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="19">
+        <v>1972</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="20">
+        <v>1972</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="18">
+        <v>1989</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A53" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="18">
+        <v>1989</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A54" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="14" t="s">
+      <c r="B55" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="19">
-        <v>2009</v>
-      </c>
-      <c r="G10" s="14" t="s">
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="18">
+        <v>1990</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1990</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7">
-        <v>1991</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25">
-      <c r="A15" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="20">
-        <v>1991</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1997</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" thickBot="1">
-      <c r="A17" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="19">
-        <v>2011</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" thickBot="1">
-      <c r="A18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1968</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" thickBot="1">
-      <c r="A19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1967</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25">
-      <c r="A20" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1964</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="19">
-        <v>1990</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" s="19">
-        <v>1976</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="F33" s="4">
-        <v>2005</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="19">
-        <v>1996</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="19">
-        <v>2005</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="19">
-        <v>1989</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="19">
-        <v>2001</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="19">
-        <v>2008</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="19">
-        <v>1994</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="19">
-        <v>1972</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="7">
-        <v>1972</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A49" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="20">
-        <v>1972</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="19">
-        <v>1989</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A53" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="19">
-        <v>1989</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A55" t="s">
-        <v>178</v>
-      </c>
-      <c r="B55" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="19">
-        <v>1990</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1">
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1">
-      <c r="I74" s="11"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1">
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1">
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1">
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1">
-      <c r="H87" s="12"/>
-      <c r="I87" s="11"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="11"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="97" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="98" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="99" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="100" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="101" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="102" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="103" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="104" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="105" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="106" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="107" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="108" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="109" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-    </row>
-    <row r="110" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="111" spans="2:5" ht="15.75" customHeight="1"/>
-    <row r="112" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="11"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A66" s="11"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A80" s="7"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A82" s="12"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A84" s="12"/>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D87" s="9"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A88" s="7"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A89" s="7"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -2099,28 +1481,24 @@
     <row r="126" ht="15.75" customHeight="1"/>
     <row r="127" ht="15.75" customHeight="1"/>
     <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="129" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="130" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="131" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="132" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="133" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A135" s="12"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="137" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="138" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="139" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="140" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="141" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="142" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="143" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="144" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -2978,7 +2356,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1000">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1000">
     <sortCondition ref="A1:A1000"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
